--- a/iselUssSyncV2/OutputWSL/20220428_1155_D50L474W90Q25.0U0.36H88G2_C_WSL.xlsx
+++ b/iselUssSyncV2/OutputWSL/20220428_1155_D50L474W90Q25.0U0.36H88G2_C_WSL.xlsx
@@ -122,10 +122,10 @@
         <v>50</v>
       </c>
       <c r="E2" s="0">
-        <v>88.188571428571393</v>
+        <v>88.189502195592453</v>
       </c>
       <c r="F2" s="0">
-        <v>88.564603174603135</v>
+        <v>88.565533941624125</v>
       </c>
     </row>
     <row r="3">
@@ -142,10 +142,10 @@
         <v>50</v>
       </c>
       <c r="E3" s="0">
-        <v>88.955691699604742</v>
+        <v>88.957966907878244</v>
       </c>
       <c r="F3" s="0">
-        <v>90.425849802371559</v>
+        <v>90.428125010645047</v>
       </c>
     </row>
     <row r="4">
@@ -162,10 +162,10 @@
         <v>50</v>
       </c>
       <c r="E4" s="0">
-        <v>88.055238095238082</v>
+        <v>88.057989028877856</v>
       </c>
       <c r="F4" s="0">
-        <v>92.397460317460329</v>
+        <v>92.400211251100103</v>
       </c>
     </row>
     <row r="5">
@@ -182,7 +182,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>87.46773809523809</v>
+        <v>87.47054418544208</v>
       </c>
       <c r="F5" s="0"/>
     </row>
@@ -200,7 +200,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="0">
-        <v>86.120434782608726</v>
+        <v>86.123289134806384</v>
       </c>
       <c r="F6" s="0"/>
     </row>
@@ -218,7 +218,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="0">
-        <v>83.698127490039852</v>
+        <v>83.701023209660633</v>
       </c>
       <c r="F7" s="0"/>
     </row>
@@ -236,10 +236,10 @@
         <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>79.169404761904744</v>
+        <v>79.172334954378229</v>
       </c>
       <c r="F8" s="0">
-        <v>88.659365079365088</v>
+        <v>88.662295271838531</v>
       </c>
     </row>
     <row r="9">
@@ -256,7 +256,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>76.555992063492084</v>
+        <v>76.558934114626808</v>
       </c>
       <c r="F9" s="0"/>
     </row>
@@ -274,7 +274,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="0">
-        <v>73.626746031746009</v>
+        <v>73.629698838410803</v>
       </c>
       <c r="F10" s="0"/>
     </row>
@@ -292,7 +292,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="0">
-        <v>70.022698412698446</v>
+        <v>70.025660871761914</v>
       </c>
       <c r="F11" s="0"/>
     </row>
@@ -310,7 +310,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="0">
-        <v>68.001706349206344</v>
+        <v>68.00467322079497</v>
       </c>
       <c r="F12" s="0"/>
     </row>
@@ -328,7 +328,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="0">
-        <v>66.228804780876501</v>
+        <v>66.231775789207433</v>
       </c>
       <c r="F13" s="0"/>
     </row>
@@ -346,10 +346,10 @@
         <v>50</v>
       </c>
       <c r="E14" s="0">
-        <v>64.474047619047639</v>
+        <v>64.477022488338079</v>
       </c>
       <c r="F14" s="0">
-        <v>22.46813492063492</v>
+        <v>22.47110978992535</v>
       </c>
     </row>
     <row r="15">
@@ -366,10 +366,10 @@
         <v>50</v>
       </c>
       <c r="E15" s="0">
-        <v>62.476414342629489</v>
+        <v>62.47939279709658</v>
       </c>
       <c r="F15" s="0">
-        <v>22.806095617529881</v>
+        <v>22.809074071996996</v>
       </c>
     </row>
     <row r="16">
@@ -386,10 +386,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="0">
-        <v>58.389841269841263</v>
+        <v>58.392826067313244</v>
       </c>
       <c r="F16" s="0">
-        <v>22.991547619047623</v>
+        <v>22.994532416519618</v>
       </c>
     </row>
     <row r="17">
@@ -406,10 +406,10 @@
         <v>50</v>
       </c>
       <c r="E17" s="0">
-        <v>55.192222222222235</v>
+        <v>55.195212259567832</v>
       </c>
       <c r="F17" s="0">
-        <v>23.663452380952375</v>
+        <v>23.666442418297976</v>
       </c>
     </row>
     <row r="18">
@@ -426,10 +426,10 @@
         <v>50</v>
       </c>
       <c r="E18" s="0">
-        <v>51.434382470119516</v>
+        <v>51.437376644207426</v>
       </c>
       <c r="F18" s="0">
-        <v>23.387529880478091</v>
+        <v>23.390524054565997</v>
       </c>
     </row>
     <row r="19">
@@ -446,10 +446,10 @@
         <v>50</v>
       </c>
       <c r="E19" s="0">
-        <v>46.66964143426295</v>
+        <v>46.672640572441651</v>
       </c>
       <c r="F19" s="0">
-        <v>24.606852589641441</v>
+        <v>24.609851727820125</v>
       </c>
     </row>
     <row r="20">
@@ -466,10 +466,10 @@
         <v>50</v>
       </c>
       <c r="E20" s="0">
-        <v>40.534501992031856</v>
+        <v>40.537501130210551</v>
       </c>
       <c r="F20" s="0">
-        <v>34.756533864541829</v>
+        <v>34.759533002720509</v>
       </c>
     </row>
     <row r="21">
@@ -486,10 +486,10 @@
         <v>50</v>
       </c>
       <c r="E21" s="0">
-        <v>36.016587301587315</v>
+        <v>36.019579545195448</v>
       </c>
       <c r="F21" s="0">
-        <v>59.317539682539689</v>
+        <v>59.320531926147837</v>
       </c>
     </row>
     <row r="22">
@@ -506,10 +506,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="0">
-        <v>32.455555555555563</v>
+        <v>32.458534010022653</v>
       </c>
       <c r="F22" s="0">
-        <v>59.835357142857134</v>
+        <v>59.838335597324239</v>
       </c>
     </row>
     <row r="23">
@@ -526,10 +526,10 @@
         <v>50</v>
       </c>
       <c r="E23" s="0">
-        <v>30.017142857142844</v>
+        <v>30.020100627898373</v>
       </c>
       <c r="F23" s="0">
-        <v>52.105595238095241</v>
+        <v>52.10855300885077</v>
       </c>
     </row>
     <row r="24">
@@ -546,10 +546,10 @@
         <v>50</v>
       </c>
       <c r="E24" s="0">
-        <v>28.544047619047639</v>
+        <v>28.546943338668417</v>
       </c>
       <c r="F24" s="0">
-        <v>48.649603174603179</v>
+        <v>48.65249889422396</v>
       </c>
     </row>
     <row r="25">
@@ -566,10 +566,10 @@
         <v>50</v>
       </c>
       <c r="E25" s="0">
-        <v>36.275476190476184</v>
+        <v>36.278282280680152</v>
       </c>
       <c r="F25" s="0">
-        <v>49.091666666666669</v>
+        <v>49.094472756870623</v>
       </c>
     </row>
     <row r="26">
@@ -586,10 +586,10 @@
         <v>50</v>
       </c>
       <c r="E26" s="0">
-        <v>58.876071428571443</v>
+        <v>58.878760311076469</v>
       </c>
       <c r="F26" s="0">
-        <v>46.515753968253982</v>
+        <v>46.518442850759008</v>
       </c>
     </row>
     <row r="27">
@@ -606,10 +606,10 @@
         <v>50</v>
       </c>
       <c r="E27" s="0">
-        <v>47.182629482071711</v>
+        <v>47.185173578595709</v>
       </c>
       <c r="F27" s="0">
-        <v>51.477689243027882</v>
+        <v>51.48023333955188</v>
       </c>
     </row>
     <row r="28">
@@ -626,10 +626,10 @@
         <v>50</v>
       </c>
       <c r="E28" s="0">
-        <v>55.110515873015878</v>
+        <v>55.112887605276732</v>
       </c>
       <c r="F28" s="0">
-        <v>57.029761904761912</v>
+        <v>57.03213363702276</v>
       </c>
     </row>
     <row r="29">
@@ -646,10 +646,10 @@
         <v>50</v>
       </c>
       <c r="E29" s="0">
-        <v>63.828769841269846</v>
+        <v>63.830941630985436</v>
       </c>
       <c r="F29" s="0">
-        <v>53.813333333333333</v>
+        <v>53.815505123048922</v>
       </c>
     </row>
     <row r="30">
@@ -666,10 +666,10 @@
         <v>50</v>
       </c>
       <c r="E30" s="0">
-        <v>60.604621513944231</v>
+        <v>60.606310683723024</v>
       </c>
       <c r="F30" s="0">
-        <v>56.101952191235064</v>
+        <v>56.103641361013857</v>
       </c>
     </row>
   </sheetData>
